--- a/Frequencies.xlsx
+++ b/Frequencies.xlsx
@@ -12,32 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">2019-03-05 11:37:07.645 (UTC)
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequency (Hz): 66.040
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-03-05 11:25:18.778 (UTC)
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequency (Hz): 42.346
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-03-05 11:27:29.471 (UTC)
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequency (Hz): 81.835
-</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -80,37 +55,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>